--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/20/seed4/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.7116</v>
+        <v>-11.7492</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.9394</v>
+        <v>-11.99</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.17989999999999</v>
+        <v>-12.3161</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.84679999999997</v>
+        <v>-20.85699999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.02740000000001</v>
+        <v>-14.01840000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.96350000000001</v>
+        <v>-14.10050000000001</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.14350000000002</v>
+        <v>-22.00010000000003</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-19.96679999999999</v>
+        <v>-20.13819999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.87330000000001</v>
+        <v>-22.01440000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.98690000000003</v>
+        <v>-22.01270000000001</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.94270000000002</v>
+        <v>-13.17760000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
